--- a/biology/Botanique/Square_du_Docteur-Calmette/Square_du_Docteur-Calmette.xlsx
+++ b/biology/Botanique/Square_du_Docteur-Calmette/Square_du_Docteur-Calmette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square du Docteur-Calmette est un espace vert du 15e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square du Docteur-Calmette est situé au sud-est du 15e arrondissement, dans un espace situé entre les boulevards des Maréchaux et le boulevard périphérique. Son plan au sol occupe grossièrement un rectangle d'environ 130 m dans sa longueur, d'est en ouest, et 100 m dans sa largeur, du nord au sud. Au total, il occupe 11 760 m2.
 Le square est entouré de voies sur chacun de ses côtés : au nord, le boulevard Lefebvre ; à l'est, la rue Jean-Sicard ; au sud, l'avenue Albert-Bartholomé ; à l'ouest, la rue André-Theuriet.
@@ -547,7 +561,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il porte le nom d'Albert Calmette (1863-1933), codécouvreur du vaccin antituberculeux du BCG.
 </t>
@@ -578,7 +594,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce square est créé et prend sa dénomination actuelle en 1932 sur l'emplacement du bastion no 74 de l'enceinte de Thiers.
 </t>
@@ -609,7 +627,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le square permet les activités suivantes :
 terrains de basket-ball et de handball ;
@@ -643,9 +663,11 @@
           <t>Décoration</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le square comprend deux œuvres, réalisées dans les années 1930[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le square comprend deux œuvres, réalisées dans les années 1930 :
 Le Printemps (Paul Manaut) : groupe statuaire en marbre représentant trois nymphes ;
 Scène pastorale (Gilbert Privat) : bas-relief en pierre représentant deux jeunes femmes et un mouton.
 Ces deux œuvres encadrent chacune l'un des deux petits bassins (désaffectés) du square.
